--- a/SeleniumFramework/TestExcel.xlsx
+++ b/SeleniumFramework/TestExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419657A1-9473-41FD-87B9-86423221C936}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32467A37-3B11-4FE4-855E-1BF9E9F6F826}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>username</t>
+    <t>test@gmail.com</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>nbanish@gmail.com</t>
-  </si>
-  <si>
-    <t>jamesbond007</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -63,12 +57,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -78,7 +87,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -360,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,26 +382,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{54A2E3E3-81A1-4456-A34C-AD2725C136AB}"/>
-    <hyperlink ref="B2" r:id="rId2" display="Thodupuzha@1" xr:uid="{0A25FF09-6245-48BC-90C0-07971F23290D}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{54A2E3E3-81A1-4456-A34C-AD2725C136AB}"/>
+    <hyperlink ref="B1" r:id="rId2" display="Thodupuzha@1" xr:uid="{0A25FF09-6245-48BC-90C0-07971F23290D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>